--- a/adres1.xlsx
+++ b/adres1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>DANE</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>nowa7</t>
+  </si>
+  <si>
+    <t>nowa8</t>
+  </si>
+  <si>
+    <t>nowa9</t>
+  </si>
+  <si>
+    <t>nowa10</t>
+  </si>
+  <si>
+    <t>nowa11</t>
+  </si>
+  <si>
+    <t>nowa12</t>
+  </si>
+  <si>
+    <t>nowa13</t>
   </si>
 </sst>
 </file>
@@ -496,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +707,107 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
